--- a/docs/Projectskills/werk begroting.xlsx
+++ b/docs/Projectskills/werk begroting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Team Efficient FYS-Project\docs\Begroting Projectskills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Team Efficient FYS-Project\docs\Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC4578-A205-481C-964F-9901A0C8B1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCDFB98-32B3-4E88-BEEA-07FFF58F35D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
@@ -485,14 +485,14 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -521,6 +521,9 @@
         <v>44168</v>
       </c>
       <c r="I1" s="4">
+        <v>43933</v>
+      </c>
+      <c r="J1" s="4">
         <v>44086</v>
       </c>
       <c r="O1" s="8" t="s">
@@ -562,12 +565,14 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
       <c r="O3" s="8">
         <f>SUM(B3:N3)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -586,9 +591,12 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
       <c r="O4" s="7">
         <f>SUM(B4:N4)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -613,9 +621,12 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
       <c r="O5" s="7">
         <f>SUM(B5:N5)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -638,11 +649,14 @@
         <v>1</v>
       </c>
       <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
       <c r="O6" s="7">
         <f>SUM(B6:N6)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -652,9 +666,12 @@
       <c r="C7">
         <v>0.5</v>
       </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
       <c r="O7" s="7">
         <f>SUM(A7:N7)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -701,15 +718,15 @@
       </c>
       <c r="H9" s="7">
         <f>SUM(H2:H8)</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I9" s="7">
         <f>SUM(I2:I8)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J9" s="7">
         <f>SUM(J2:J8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="7">
         <f>SUM(K2:K8)</f>
@@ -717,7 +734,7 @@
       </c>
       <c r="O9" s="7">
         <f>SUM(O2:O8)</f>
-        <v>56</v>
+        <v>64.5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Projectskills/werk begroting.xlsx
+++ b/docs/Projectskills/werk begroting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Team Efficient FYS-Project\docs\Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCDFB98-32B3-4E88-BEEA-07FFF58F35D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FEA2F0-F441-40AE-91C3-FC98AE7B2249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -167,6 +167,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827D50F-C076-472E-AD24-D8FEEAC148E0}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,9 +494,10 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,13 +526,19 @@
         <v>43933</v>
       </c>
       <c r="J1" s="4">
-        <v>44086</v>
-      </c>
-      <c r="O1" s="8" t="s">
+        <v>44055</v>
+      </c>
+      <c r="K1" s="4">
+        <v>44116</v>
+      </c>
+      <c r="L1" s="4">
+        <v>44116</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -540,12 +548,12 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="O2" s="7">
+      <c r="S2" s="7">
         <f>SUM(B2:N2)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -570,12 +578,18 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="O3" s="8">
+      <c r="K3" s="10">
+        <v>2</v>
+      </c>
+      <c r="L3" s="10">
+        <v>5</v>
+      </c>
+      <c r="S3" s="8">
         <f>SUM(B3:N3)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -594,12 +608,12 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="O4" s="7">
+      <c r="S4" s="7">
         <f>SUM(B4:N4)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -624,12 +638,12 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="O5" s="7">
+      <c r="S5" s="7">
         <f>SUM(B5:N5)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -654,12 +668,12 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="O6" s="7">
+      <c r="S6" s="7">
         <f>SUM(B6:N6)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -669,12 +683,12 @@
       <c r="H7">
         <v>0.5</v>
       </c>
-      <c r="O7" s="7">
+      <c r="S7" s="7">
         <f>SUM(A7:N7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -684,12 +698,12 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="O8" s="7">
+      <c r="S8" s="7">
         <f>SUM(B8:N8)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -730,11 +744,15 @@
       </c>
       <c r="K9" s="7">
         <f>SUM(K2:K8)</f>
+        <v>2</v>
+      </c>
+      <c r="L9" s="7">
+        <f ca="1">SUM(L2:L9)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <f>SUM(O2:O8)</f>
-        <v>64.5</v>
+      <c r="S9" s="7">
+        <f>SUM(S2:S8)</f>
+        <v>71.5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Projectskills/werk begroting.xlsx
+++ b/docs/Projectskills/werk begroting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Team Efficient FYS-Project\docs\Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FEA2F0-F441-40AE-91C3-FC98AE7B2249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CBF4F-0A22-4FDB-A749-17802AF70D5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +494,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -534,6 +534,9 @@
       <c r="L1" s="4">
         <v>44116</v>
       </c>
+      <c r="M1" s="4">
+        <v>44147</v>
+      </c>
       <c r="S1" s="8" t="s">
         <v>9</v>
       </c>
@@ -584,9 +587,12 @@
       <c r="L3" s="10">
         <v>5</v>
       </c>
+      <c r="M3" s="10">
+        <v>7</v>
+      </c>
       <c r="S3" s="8">
         <f>SUM(B3:N3)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -608,9 +614,12 @@
       <c r="I4">
         <v>2</v>
       </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
       <c r="S4" s="7">
         <f>SUM(B4:N4)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -638,9 +647,12 @@
       <c r="I5">
         <v>2</v>
       </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
       <c r="S5" s="7">
         <f>SUM(B5:N5)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -668,9 +680,12 @@
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
       <c r="S6" s="7">
         <f>SUM(B6:N6)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -683,9 +698,12 @@
       <c r="H7">
         <v>0.5</v>
       </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
       <c r="S7" s="7">
         <f>SUM(A7:N7)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -698,9 +716,12 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
       <c r="S8" s="7">
         <f>SUM(B8:N8)</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -752,7 +773,7 @@
       </c>
       <c r="S9" s="7">
         <f>SUM(S2:S8)</f>
-        <v>71.5</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Projectskills/werk begroting.xlsx
+++ b/docs/Projectskills/werk begroting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Team Efficient FYS-Project\docs\Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CBF4F-0A22-4FDB-A749-17802AF70D5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCDFB98-32B3-4E88-BEEA-07FFF58F35D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -167,7 +167,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827D50F-C076-472E-AD24-D8FEEAC148E0}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,10 +493,9 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,22 +524,13 @@
         <v>43933</v>
       </c>
       <c r="J1" s="4">
-        <v>44055</v>
-      </c>
-      <c r="K1" s="4">
-        <v>44116</v>
-      </c>
-      <c r="L1" s="4">
-        <v>44116</v>
-      </c>
-      <c r="M1" s="4">
-        <v>44147</v>
-      </c>
-      <c r="S1" s="8" t="s">
+        <v>44086</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -551,12 +540,12 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="S2" s="7">
+      <c r="O2" s="7">
         <f>SUM(B2:N2)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -581,21 +570,12 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="10">
-        <v>2</v>
-      </c>
-      <c r="L3" s="10">
-        <v>5</v>
-      </c>
-      <c r="M3" s="10">
-        <v>7</v>
-      </c>
-      <c r="S3" s="8">
+      <c r="O3" s="8">
         <f>SUM(B3:N3)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -614,15 +594,12 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="M4">
-        <v>7</v>
-      </c>
-      <c r="S4" s="7">
+      <c r="O4" s="7">
         <f>SUM(B4:N4)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -647,15 +624,12 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-      <c r="S5" s="7">
+      <c r="O5" s="7">
         <f>SUM(B5:N5)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -680,15 +654,12 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="S6" s="7">
+      <c r="O6" s="7">
         <f>SUM(B6:N6)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -698,15 +669,12 @@
       <c r="H7">
         <v>0.5</v>
       </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="S7" s="7">
+      <c r="O7" s="7">
         <f>SUM(A7:N7)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -716,15 +684,12 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="S8" s="7">
+      <c r="O8" s="7">
         <f>SUM(B8:N8)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -765,15 +730,11 @@
       </c>
       <c r="K9" s="7">
         <f>SUM(K2:K8)</f>
-        <v>2</v>
-      </c>
-      <c r="L9" s="7">
-        <f ca="1">SUM(L2:L9)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="7">
-        <f>SUM(S2:S8)</f>
-        <v>101</v>
+      <c r="O9" s="7">
+        <f>SUM(O2:O8)</f>
+        <v>64.5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Projectskills/werk begroting.xlsx
+++ b/docs/Projectskills/werk begroting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Team Efficient FYS-Project\docs\Projectskills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Downloads\Projectplan Team Efficient\Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCDFB98-32B3-4E88-BEEA-07FFF58F35D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D06FDE0-5F4D-48F6-B520-8FF9F026130D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827D50F-C076-472E-AD24-D8FEEAC148E0}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +495,7 @@
     <col min="7" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,11 +526,12 @@
       <c r="J1" s="4">
         <v>44086</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="T1" s="8"/>
+      <c r="W1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -540,12 +541,13 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="O2" s="7">
+      <c r="T2" s="7"/>
+      <c r="W2" s="7">
         <f>SUM(B2:N2)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -570,12 +572,13 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="O3" s="8">
+      <c r="T3" s="8"/>
+      <c r="W3" s="8">
         <f>SUM(B3:N3)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -594,12 +597,13 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="O4" s="7">
+      <c r="T4" s="7"/>
+      <c r="W4" s="7">
         <f>SUM(B4:N4)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -624,12 +628,13 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="O5" s="7">
+      <c r="T5" s="7"/>
+      <c r="W5" s="7">
         <f>SUM(B5:N5)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -654,12 +659,13 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="O6" s="7">
+      <c r="T6" s="7"/>
+      <c r="W6" s="7">
         <f>SUM(B6:N6)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -669,12 +675,13 @@
       <c r="H7">
         <v>0.5</v>
       </c>
-      <c r="O7" s="7">
+      <c r="T7" s="7"/>
+      <c r="W7" s="7">
         <f>SUM(A7:N7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -684,12 +691,13 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="O8" s="7">
+      <c r="T8" s="7"/>
+      <c r="W8" s="7">
         <f>SUM(B8:N8)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -732,8 +740,9 @@
         <f>SUM(K2:K8)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <f>SUM(O2:O8)</f>
+      <c r="T9" s="7"/>
+      <c r="W9" s="7">
+        <f>SUM(W2:W8)</f>
         <v>64.5</v>
       </c>
     </row>

--- a/docs/Projectskills/werk begroting.xlsx
+++ b/docs/Projectskills/werk begroting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Team Efficient FYS-Project\docs\Projectskills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuf\Team Efficient\docs\Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCDFB98-32B3-4E88-BEEA-07FFF58F35D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1B4BCE-E82B-434A-ABF5-27417B4A8A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Gewerkte uren</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>TOTAAL</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -167,10 +170,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Total" xfId="1" builtinId="25"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Totaal" xfId="1" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -186,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -482,20 +486,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827D50F-C076-472E-AD24-D8FEEAC148E0}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,31 +514,47 @@
         <v>44154</v>
       </c>
       <c r="D1" s="3">
+        <v>44155</v>
+      </c>
+      <c r="E1" s="3">
         <v>44158</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>44160</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="4">
+        <v>44161</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3">
         <v>44162</v>
       </c>
-      <c r="G1" s="4">
+      <c r="J1" s="4">
         <v>44167</v>
       </c>
-      <c r="H1" s="4">
+      <c r="K1" s="4">
         <v>44168</v>
       </c>
-      <c r="I1" s="4">
-        <v>43933</v>
-      </c>
-      <c r="J1" s="4">
-        <v>44086</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="L1" s="4">
+        <v>44169</v>
+      </c>
+      <c r="M1" s="4">
+        <v>44172</v>
+      </c>
+      <c r="N1" s="4">
+        <v>44174</v>
+      </c>
+      <c r="O1" s="4">
+        <v>44176</v>
+      </c>
+      <c r="P1" s="4">
+        <v>44182</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -540,12 +564,21 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="O2" s="7">
-        <f>SUM(B2:N2)</f>
+      <c r="D2">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="7">
+        <f>SUM(B2:F2)</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -555,27 +588,39 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5">
         <v>1</v>
       </c>
-      <c r="O3" s="8">
-        <f>SUM(B3:N3)</f>
-        <v>13</v>
+      <c r="O3" s="10">
+        <v>7</v>
+      </c>
+      <c r="P3" s="10">
+        <v>2</v>
+      </c>
+      <c r="R3" s="8">
+        <f>SUM(B3:F3)</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -585,21 +630,33 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="O4" s="7">
-        <f>SUM(B4:N4)</f>
-        <v>12</v>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="R4" s="7">
+        <f>SUM(B4:F4)</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -609,27 +666,42 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="O5" s="7">
-        <f>SUM(B5:N5)</f>
-        <v>15</v>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="R5" s="7">
+        <f>SUM(B5:F5)</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -639,57 +711,81 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <f>SUM(B6:N6)</f>
-        <v>16</v>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="R6" s="7">
+        <f>SUM(B6:F6)</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
-      <c r="H7">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>0.5</v>
       </c>
-      <c r="O7" s="7">
-        <f>SUM(A7:N7)</f>
-        <v>1</v>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="7">
+        <f>SUM(A7:F7)</f>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.5</v>
       </c>
-      <c r="H8">
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="O8" s="7">
-        <f>SUM(B8:N8)</f>
-        <v>2.5</v>
+      <c r="R8" s="7">
+        <f>SUM(B8:F8)</f>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -701,47 +797,44 @@
         <f>SUM(C2:C8)</f>
         <v>15.5</v>
       </c>
-      <c r="D9" s="7">
-        <f>SUM(D8)</f>
+      <c r="E9" s="7">
+        <f>SUM(E8)</f>
         <v>1.5</v>
       </c>
-      <c r="E9" s="9">
-        <f>SUM(E2:E8)</f>
+      <c r="F9" s="9">
+        <f>SUM(F2:F8)</f>
         <v>6</v>
       </c>
-      <c r="F9" s="7">
-        <f>SUM(F3:F8)</f>
+      <c r="I9" s="7">
+        <f>SUM(I3:I8)</f>
         <v>16</v>
       </c>
-      <c r="G9" s="7">
+      <c r="J9" s="7">
         <v>7</v>
-      </c>
-      <c r="H9" s="7">
-        <f>SUM(H2:H8)</f>
-        <v>5.5</v>
-      </c>
-      <c r="I9" s="7">
-        <f>SUM(I2:I8)</f>
-        <v>8</v>
-      </c>
-      <c r="J9" s="7">
-        <f>SUM(J2:J8)</f>
-        <v>2</v>
       </c>
       <c r="K9" s="7">
         <f>SUM(K2:K8)</f>
-        <v>0</v>
+        <v>5.5</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(L2:L8)</f>
+        <v>8</v>
+      </c>
+      <c r="N9" s="7">
+        <f>SUM(N2:N8)</f>
+        <v>4</v>
       </c>
       <c r="O9" s="7">
         <f>SUM(O2:O8)</f>
-        <v>64.5</v>
+        <v>28</v>
+      </c>
+      <c r="R9" s="7">
+        <f>SUM(R2:R8)</f>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E9" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/Projectskills/werk begroting.xlsx
+++ b/docs/Projectskills/werk begroting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuf\Team Efficient\docs\Projectskills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HvA map\FYS Technische begeleiding\website Corendon\website-corendon\docs\Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1B4BCE-E82B-434A-ABF5-27417B4A8A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8D712-51DD-4036-A749-B70CCBC46AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
+    <workbookView xWindow="-10692" yWindow="1476" windowWidth="17280" windowHeight="8994" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -488,22 +488,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827D50F-C076-472E-AD24-D8FEEAC148E0}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="10.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,11 +550,14 @@
       <c r="P1" s="4">
         <v>44182</v>
       </c>
+      <c r="Q1" s="4">
+        <v>44183</v>
+      </c>
       <c r="R1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -578,7 +581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -620,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -644,6 +647,9 @@
       </c>
       <c r="L4">
         <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
       </c>
       <c r="O4">
         <v>7</v>
@@ -656,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -701,7 +707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -746,7 +752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -767,7 +773,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -785,7 +791,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -822,7 +828,7 @@
       </c>
       <c r="N9" s="7">
         <f>SUM(N2:N8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O9" s="7">
         <f>SUM(O2:O8)</f>

--- a/docs/Projectskills/werk begroting.xlsx
+++ b/docs/Projectskills/werk begroting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HvA map\FYS Technische begeleiding\website Corendon\website-corendon\docs\Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8D712-51DD-4036-A749-B70CCBC46AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA23C6F4-CCBF-46BA-867C-795BCF0E32F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10692" yWindow="1476" windowWidth="17280" windowHeight="8994" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827D50F-C076-472E-AD24-D8FEEAC148E0}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -657,6 +657,9 @@
       <c r="P4">
         <v>2</v>
       </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
       <c r="R4" s="7">
         <f>SUM(B4:F4)</f>
         <v>10</v>

--- a/docs/Projectskills/werk begroting.xlsx
+++ b/docs/Projectskills/werk begroting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HvA map\FYS Technische begeleiding\website Corendon\website-corendon\docs\Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA23C6F4-CCBF-46BA-867C-795BCF0E32F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95C3337-D7A4-4BC4-ACC3-703F8F8EB5DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
@@ -486,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827D50F-C076-472E-AD24-D8FEEAC148E0}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -503,7 +503,7 @@
     <col min="15" max="19" width="10.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,11 +553,14 @@
       <c r="Q1" s="4">
         <v>44183</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="4">
+        <v>44195</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -576,12 +579,12 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="7">
+      <c r="AA2" s="7">
         <f>SUM(B2:F2)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -618,12 +621,12 @@
       <c r="P3" s="10">
         <v>2</v>
       </c>
-      <c r="R3" s="8">
+      <c r="AA3" s="8">
         <f>SUM(B3:F3)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -660,12 +663,15 @@
       <c r="Q4">
         <v>4</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="7">
         <f>SUM(B4:F4)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -705,12 +711,12 @@
       <c r="P5">
         <v>2</v>
       </c>
-      <c r="R5" s="7">
+      <c r="AA5" s="7">
         <f>SUM(B5:F5)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -750,12 +756,12 @@
       <c r="P6">
         <v>2</v>
       </c>
-      <c r="R6" s="7">
+      <c r="AA6" s="7">
         <f>SUM(B6:F6)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -771,12 +777,12 @@
       <c r="P7">
         <v>0.5</v>
       </c>
-      <c r="R7" s="7">
+      <c r="AA7" s="7">
         <f>SUM(A7:F7)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -789,12 +795,12 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="R8" s="7">
+      <c r="AA8" s="7">
         <f>SUM(B8:F8)</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -837,8 +843,8 @@
         <f>SUM(O2:O8)</f>
         <v>28</v>
       </c>
-      <c r="R9" s="7">
-        <f>SUM(R2:R8)</f>
+      <c r="AA9" s="7">
+        <f>SUM(AA2:AA8)</f>
         <v>58</v>
       </c>
     </row>
